--- a/src/main/webapp/resources/excel/엑셀 업로드 샘플.xlsx
+++ b/src/main/webapp/resources/excel/엑셀 업로드 샘플.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="범주" sheetId="2" r:id="rId1"/>
+    <sheet name="문제입력" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +77,6 @@
     <t>보기10</t>
   </si>
   <si>
-    <t>범주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정답여부1</t>
   </si>
   <si>
@@ -115,10 +112,6 @@
     <t>7. 애플리케이션 배포</t>
   </si>
   <si>
-    <t>난이도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,7 +212,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>범주를 참고하여 아래 양식대로 입력해 주세요. (보기는 최소 4개 이상)</t>
+    <t>범주시트를 참고하여 아래 양식대로 입력해 주세요. (보기는 최소 4개 이상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -297,15 +290,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -324,13 +308,28 @@
       <left style="hair">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="hair">
         <color auto="1"/>
       </right>
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -345,71 +344,13 @@
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
         <color auto="1"/>
       </left>
       <right style="hair">
@@ -630,106 +571,11 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="hair">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
       <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -793,6 +639,73 @@
         <color auto="1"/>
       </top>
       <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -803,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,131 +726,116 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,11 +1122,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="2.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.69921875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.69921875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.69921875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.69921875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.69921875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.69921875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.69921875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.69921875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="30.69921875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.69921875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="30.69921875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.69921875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="30.69921875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="9.69921875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="30.69921875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9.69921875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="30.69921875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="9.69921875" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:6" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" s="1" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="29"/>
+      <c r="C4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="29"/>
+      <c r="C5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="29"/>
+      <c r="C6" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="29"/>
+      <c r="C7" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="29"/>
+      <c r="C8" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="30"/>
+      <c r="C9" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="38"/>
+    </row>
+    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="29"/>
+      <c r="C11" s="38"/>
+    </row>
+    <row r="12" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="29"/>
+      <c r="C12" s="38"/>
+    </row>
+    <row r="13" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="29"/>
+      <c r="C13" s="38"/>
+    </row>
+    <row r="14" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="29"/>
+      <c r="C14" s="38"/>
+    </row>
+    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="29"/>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="2:6" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="32"/>
+      <c r="C16" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B10:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1261,480 +1319,387 @@
     <col min="26" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+    </row>
+    <row r="2" spans="1:25" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5"/>
+      <c r="B2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+    </row>
+    <row r="3" spans="1:25" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="37" t="s">
+      <c r="H4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="13"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="9"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="9"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="9"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B9" s="7"/>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:25" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="11" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-    </row>
-    <row r="12" spans="1:25" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="9"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="9"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="9"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
       <c r="Y12" s="12"/>
     </row>
-    <row r="13" spans="1:25" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="S14" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="T14" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="U14" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="V14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="W14" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="X14" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y14" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="9">
-        <v>15</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="19"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="15"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="15"/>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="15"/>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="15"/>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="15"/>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="15"/>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="18"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B12:F12"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>